--- a/StructureDefinition-emr-lab-service-request.xlsx
+++ b/StructureDefinition-emr-lab-service-request.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$47</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="420">
   <si>
     <t>Path</t>
   </si>
@@ -702,6 +702,95 @@
     <t>Procedure.procedureCode</t>
   </si>
   <si>
+    <t>ServiceRequest.code.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/ValueSet/emr-lab-order-code-vs</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>ServiceRequest.orderDetail</t>
   </si>
   <si>
@@ -753,7 +842,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Location|Device)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/StructureDefinition/emr-lab-patient)
 </t>
   </si>
   <si>
@@ -785,7 +874,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/StructureDefinition/emr-lab-encounter)
 </t>
   </si>
   <si>
@@ -1388,7 +1477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN43"/>
+  <dimension ref="A1:AN47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1424,7 +1513,7 @@
     <col min="25" max="25" width="67.796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3963,14 +4052,14 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>44</v>
@@ -3979,20 +4068,18 @@
         <v>44</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -4017,13 +4104,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4041,50 +4128,50 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>219</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -4093,21 +4180,21 @@
         <v>44</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4143,40 +4230,40 @@
         <v>44</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>44</v>
@@ -4187,7 +4274,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4198,7 +4285,7 @@
         <v>52</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>44</v>
@@ -4210,16 +4297,20 @@
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
       </c>
@@ -4243,13 +4334,11 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
@@ -4267,13 +4356,13 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>44</v>
@@ -4282,28 +4371,28 @@
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="AM25" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4322,16 +4411,20 @@
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>246</v>
+        <v>54</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
       </c>
@@ -4379,7 +4472,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4394,35 +4487,35 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>253</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>44</v>
@@ -4434,15 +4527,17 @@
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4467,13 +4562,13 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>44</v>
+        <v>254</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
@@ -4491,39 +4586,39 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>263</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4546,16 +4641,18 @@
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
       </c>
@@ -4579,13 +4676,13 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -4603,7 +4700,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4621,29 +4718,29 @@
         <v>44</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>271</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>52</v>
@@ -4658,13 +4755,13 @@
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4715,10 +4812,10 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>52</v>
@@ -4730,32 +4827,32 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>52</v>
@@ -4770,17 +4867,15 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4829,7 +4924,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4844,28 +4939,28 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4884,17 +4979,15 @@
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -4919,13 +5012,13 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -4943,7 +5036,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4958,35 +5051,35 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>44</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>305</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>44</v>
@@ -4998,17 +5091,15 @@
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5033,13 +5124,13 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
@@ -5057,13 +5148,13 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
@@ -5072,35 +5163,35 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>311</v>
+        <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>44</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>44</v>
@@ -5112,13 +5203,13 @@
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>179</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5145,13 +5236,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>317</v>
+        <v>44</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5169,13 +5260,13 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
@@ -5184,35 +5275,35 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>44</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
@@ -5224,15 +5315,17 @@
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5281,13 +5374,13 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
@@ -5296,35 +5389,35 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>44</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>44</v>
@@ -5395,13 +5488,13 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
@@ -5431,7 +5524,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5450,16 +5543,16 @@
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5524,13 +5617,13 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>332</v>
@@ -5541,7 +5634,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5561,10 +5654,10 @@
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>343</v>
@@ -5597,13 +5690,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>44</v>
+        <v>346</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -5621,7 +5714,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5636,16 +5729,16 @@
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>345</v>
+        <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>346</v>
+        <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>347</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5657,7 +5750,7 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>349</v>
+        <v>44</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5673,20 +5766,18 @@
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>353</v>
-      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5750,16 +5841,16 @@
         <v>64</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>354</v>
+        <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>355</v>
+        <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5767,7 +5858,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5790,16 +5881,16 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>358</v>
+        <v>179</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5825,13 +5916,13 @@
         <v>44</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>44</v>
+        <v>357</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
@@ -5849,7 +5940,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5864,16 +5955,16 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>44</v>
+        <v>358</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>44</v>
+        <v>361</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5881,11 +5972,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5904,20 +5995,18 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>179</v>
+        <v>363</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>369</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
@@ -5941,13 +6030,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>370</v>
+        <v>44</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>371</v>
+        <v>44</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -5965,7 +6054,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5980,24 +6069,24 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>44</v>
+        <v>367</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>44</v>
+        <v>361</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>373</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6020,13 +6109,13 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6077,7 +6166,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6092,35 +6181,35 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>228</v>
+        <v>375</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>379</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
@@ -6129,18 +6218,20 @@
         <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>54</v>
+        <v>379</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6189,13 +6280,13 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>44</v>
@@ -6204,13 +6295,13 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>44</v>
+        <v>383</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>228</v>
+        <v>384</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
@@ -6221,7 +6312,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6241,19 +6332,19 @@
         <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6303,7 +6394,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6318,23 +6409,477 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AL47" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN43">
+  <autoFilter ref="A1:AN47">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6344,7 +6889,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI42">
+  <conditionalFormatting sqref="A2:AI46">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-emr-lab-service-request.xlsx
+++ b/StructureDefinition-emr-lab-service-request.xlsx
@@ -755,7 +755,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/ValueSet/emr-lab-order-code-vs</t>
+    <t>http://i-tech-uw.github.io/emr-lis-ig/ValueSet/emr-lab-order-code-vs</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -842,7 +842,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/StructureDefinition/emr-lab-patient)
+    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/emr-lis-ig/StructureDefinition/emr-lab-patient)
 </t>
   </si>
   <si>
@@ -874,7 +874,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/StructureDefinition/emr-lab-encounter)
+    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/emr-lis-ig/StructureDefinition/emr-lab-encounter)
 </t>
   </si>
   <si>
